--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>03 May -- 09 May 2020</t>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -536,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,16 +600,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>72.36</v>
+        <v>67.87</v>
       </c>
       <c r="I2">
-        <v>1887.13</v>
+        <v>1772.05</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -623,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -683,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -703,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -743,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -783,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -843,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -863,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -883,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -923,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -943,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1003,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1063,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1077,13 +1083,13 @@
         <v>821.5700000000001</v>
       </c>
       <c r="D26">
-        <v>923.88</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E26">
-        <v>102.31</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1097,13 +1103,13 @@
         <v>819</v>
       </c>
       <c r="D27">
-        <v>922.59</v>
+        <v>819</v>
       </c>
       <c r="E27">
-        <v>103.59</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1117,13 +1123,13 @@
         <v>994.86</v>
       </c>
       <c r="D28">
-        <v>830.88</v>
+        <v>994.86</v>
       </c>
       <c r="E28">
-        <v>163.98</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1137,13 +1143,13 @@
         <v>1087.29</v>
       </c>
       <c r="D29">
-        <v>748.08</v>
+        <v>834.6900000000001</v>
       </c>
       <c r="E29">
-        <v>339.2</v>
+        <v>252.6</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1157,13 +1163,13 @@
         <v>1466.29</v>
       </c>
       <c r="D30">
-        <v>775.61</v>
+        <v>839.66</v>
       </c>
       <c r="E30">
-        <v>690.6799999999999</v>
+        <v>626.63</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1177,13 +1183,13 @@
         <v>1447.14</v>
       </c>
       <c r="D31">
-        <v>733.8200000000001</v>
+        <v>853.01</v>
       </c>
       <c r="E31">
-        <v>713.3200000000001</v>
+        <v>594.13</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1197,16 +1203,16 @@
         <v>2150.29</v>
       </c>
       <c r="D32">
-        <v>734.75</v>
+        <v>856.76</v>
       </c>
       <c r="E32">
-        <v>1415.54</v>
+        <v>1293.53</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1217,16 +1223,16 @@
         <v>2383.14</v>
       </c>
       <c r="D33">
-        <v>728</v>
+        <v>856.52</v>
       </c>
       <c r="E33">
-        <v>1655.14</v>
+        <v>1526.62</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1237,16 +1243,16 @@
         <v>2607.86</v>
       </c>
       <c r="D34">
-        <v>720.72</v>
+        <v>855.96</v>
       </c>
       <c r="E34">
-        <v>1887.13</v>
+        <v>1751.9</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1257,22 +1263,16 @@
         <v>2250</v>
       </c>
       <c r="D35">
-        <v>924.54</v>
+        <v>856.1799999999999</v>
       </c>
       <c r="E35">
-        <v>1325.46</v>
+        <v>1393.82</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J35">
-        <v>1325.46</v>
-      </c>
-      <c r="K35">
-        <v>58.91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1283,22 +1283,16 @@
         <v>2611</v>
       </c>
       <c r="D36">
-        <v>870.89</v>
+        <v>856.75</v>
       </c>
       <c r="E36">
-        <v>1740.11</v>
+        <v>1754.25</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36">
-        <v>1532.79</v>
-      </c>
-      <c r="K36">
-        <v>62.78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1306,13 +1300,13 @@
         <v>47</v>
       </c>
       <c r="D37">
-        <v>958.0599999999999</v>
+        <v>856.17</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1320,13 +1314,13 @@
         <v>48</v>
       </c>
       <c r="D38">
-        <v>840.14</v>
+        <v>870.62</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1334,13 +1328,13 @@
         <v>49</v>
       </c>
       <c r="D39">
-        <v>833.74</v>
+        <v>901.99</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1348,13 +1342,13 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>787.47</v>
+        <v>922.4</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1362,13 +1356,13 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>778.87</v>
+        <v>996.7</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1376,13 +1370,13 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>881.5700000000001</v>
+        <v>947.92</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1390,10 +1384,38 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>899.55</v>
+        <v>1774.82</v>
       </c>
       <c r="F43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
         <v>54</v>
+      </c>
+      <c r="D44">
+        <v>838.66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>887.67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,9 +49,18 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -182,6 +191,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -542,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -600,16 +612,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="H2">
-        <v>67.87</v>
+        <v>72.36</v>
       </c>
       <c r="I2">
-        <v>1772.05</v>
+        <v>1887.13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -629,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -637,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -649,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -657,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -669,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -677,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -689,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -709,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -729,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -737,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -749,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -769,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -789,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -797,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -809,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -817,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -829,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -837,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -849,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -857,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -869,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -877,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -889,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -897,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -909,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -917,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -929,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -937,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -949,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -957,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -969,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -977,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -989,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -997,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1009,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1017,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1029,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1037,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1049,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1057,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1069,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1077,19 +1089,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
       </c>
       <c r="D26">
-        <v>821.5700000000001</v>
+        <v>923.88</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>102.31</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1097,19 +1109,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>819</v>
       </c>
       <c r="D27">
-        <v>819</v>
+        <v>922.59</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>103.59</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1117,19 +1129,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>994.86</v>
       </c>
       <c r="D28">
-        <v>994.86</v>
+        <v>830.88</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>163.98</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1137,19 +1149,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
       </c>
       <c r="D29">
-        <v>834.6900000000001</v>
+        <v>748.08</v>
       </c>
       <c r="E29">
-        <v>252.6</v>
+        <v>339.2</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1157,19 +1169,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
       </c>
       <c r="D30">
-        <v>839.66</v>
+        <v>775.61</v>
       </c>
       <c r="E30">
-        <v>626.63</v>
+        <v>690.6799999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1177,19 +1189,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
       </c>
       <c r="D31">
-        <v>853.01</v>
+        <v>733.8200000000001</v>
       </c>
       <c r="E31">
-        <v>594.13</v>
+        <v>713.3200000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1197,225 +1209,710 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
       </c>
       <c r="D32">
-        <v>856.76</v>
+        <v>734.75</v>
       </c>
       <c r="E32">
-        <v>1293.53</v>
+        <v>1415.54</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
       </c>
       <c r="D33">
-        <v>856.52</v>
+        <v>728</v>
       </c>
       <c r="E33">
-        <v>1526.62</v>
+        <v>1655.14</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
       </c>
       <c r="D34">
-        <v>855.96</v>
+        <v>720.72</v>
       </c>
       <c r="E34">
-        <v>1751.9</v>
+        <v>1887.13</v>
       </c>
       <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>2243.29</v>
+      </c>
+      <c r="D35">
+        <v>924.54</v>
+      </c>
+      <c r="E35">
+        <v>1318.75</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35">
+        <v>1318.75</v>
+      </c>
+      <c r="K35">
+        <v>58.79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>2604.14</v>
+      </c>
+      <c r="D36">
+        <v>870.89</v>
+      </c>
+      <c r="E36">
+        <v>1733.25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36">
+        <v>1526</v>
+      </c>
+      <c r="K36">
+        <v>62.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>3174.14</v>
+      </c>
+      <c r="D37">
+        <v>958.0599999999999</v>
+      </c>
+      <c r="E37">
+        <v>2216.09</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37">
+        <v>1756.03</v>
+      </c>
+      <c r="K37">
+        <v>65.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>3333.57</v>
+      </c>
+      <c r="D38">
+        <v>840.14</v>
+      </c>
+      <c r="E38">
+        <v>2493.43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38">
+        <v>1940.38</v>
+      </c>
+      <c r="K38">
+        <v>67.48999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>833.74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>787.47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>778.87</v>
+      </c>
+      <c r="F41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>881.5700000000001</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>2250</v>
-      </c>
-      <c r="D35">
-        <v>856.1799999999999</v>
-      </c>
-      <c r="E35">
-        <v>1393.82</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="D43">
+        <v>899.55</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <v>2604.14</v>
+      </c>
+      <c r="D44">
+        <v>835.8099999999999</v>
+      </c>
+      <c r="E44">
+        <v>1768.34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <v>1.05</v>
+      </c>
+      <c r="H44">
+        <v>62.57</v>
+      </c>
+      <c r="I44">
+        <v>1403.62</v>
+      </c>
+      <c r="J44">
+        <v>1905.97</v>
+      </c>
+      <c r="K44">
+        <v>67.56999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45">
+        <v>3174.14</v>
+      </c>
+      <c r="D45">
+        <v>857.17</v>
+      </c>
+      <c r="E45">
+        <v>2316.97</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <v>1974.47</v>
+      </c>
+      <c r="K45">
+        <v>68.48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46">
+        <v>3333.57</v>
+      </c>
+      <c r="D46">
+        <v>874.37</v>
+      </c>
+      <c r="E46">
+        <v>2459.2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>2043.72</v>
+      </c>
+      <c r="K46">
+        <v>69.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47">
+        <v>904.05</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48">
+        <v>919.01</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49">
+        <v>943.38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>1671.43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36">
-        <v>2611</v>
-      </c>
-      <c r="D36">
-        <v>856.75</v>
-      </c>
-      <c r="E36">
-        <v>1754.25</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="D51">
+        <v>1709.37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52">
+        <v>894.22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <v>3174.14</v>
+      </c>
+      <c r="D53">
+        <v>836.58</v>
+      </c>
+      <c r="E53">
+        <v>2337.56</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>67.87</v>
+      </c>
+      <c r="I53">
+        <v>1772.05</v>
+      </c>
+      <c r="J53">
+        <v>2080.45</v>
+      </c>
+      <c r="K53">
+        <v>69.78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <v>3333.57</v>
+      </c>
+      <c r="D54">
+        <v>871.52</v>
+      </c>
+      <c r="E54">
+        <v>2462.05</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54">
+        <v>2122.85</v>
+      </c>
+      <c r="K54">
+        <v>70.23999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55">
+        <v>902.85</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <v>922.8099999999999</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>997.4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58">
+        <v>1068.91</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37">
-        <v>856.17</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="D59">
+        <v>1774.31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60">
+        <v>838.65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61">
+        <v>888.41</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62">
+        <v>3333.57</v>
+      </c>
+      <c r="D62">
+        <v>782.5</v>
+      </c>
+      <c r="E62">
+        <v>2551.07</v>
+      </c>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62">
+        <v>0.98</v>
+      </c>
+      <c r="H62">
+        <v>75.3</v>
+      </c>
+      <c r="I62">
+        <v>2389.97</v>
+      </c>
+      <c r="J62">
+        <v>2165.67</v>
+      </c>
+      <c r="K62">
+        <v>70.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63">
+        <v>783.4400000000001</v>
+      </c>
+      <c r="F63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64">
+        <v>850.51</v>
+      </c>
+      <c r="F64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65">
+        <v>910.75</v>
+      </c>
+      <c r="F65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66">
+        <v>1002.7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38">
-        <v>870.62</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>901.99</v>
-      </c>
-      <c r="F39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>922.4</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41">
-        <v>996.7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42">
-        <v>947.92</v>
-      </c>
-      <c r="F42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <v>1774.82</v>
-      </c>
-      <c r="F43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44">
-        <v>838.66</v>
-      </c>
-      <c r="F44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45">
-        <v>887.67</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
+      <c r="D67">
+        <v>1098.72</v>
+      </c>
+      <c r="F67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68">
+        <v>1193.53</v>
+      </c>
+      <c r="F68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69">
+        <v>1321.06</v>
+      </c>
+      <c r="F69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70">
+        <v>1523.38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1831,7 +1831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -1912,6 +1912,153 @@
         <v>1523.38</v>
       </c>
       <c r="F70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71">
+        <v>3333.57</v>
+      </c>
+      <c r="D71">
+        <v>935.4</v>
+      </c>
+      <c r="E71">
+        <v>2398.17</v>
+      </c>
+      <c r="F71" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71">
+        <v>0.8</v>
+      </c>
+      <c r="H71">
+        <v>61.5</v>
+      </c>
+      <c r="I71">
+        <v>1952.14</v>
+      </c>
+      <c r="J71">
+        <v>2186.81</v>
+      </c>
+      <c r="K71">
+        <v>70.95999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72">
+        <v>1074.3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73">
+        <v>811.55</v>
+      </c>
+      <c r="F73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74">
+        <v>1419.86</v>
+      </c>
+      <c r="F74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75">
+        <v>1660.02</v>
+      </c>
+      <c r="F75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76">
+        <v>1516.25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <v>528.5700000000001</v>
+      </c>
+      <c r="F77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78">
+        <v>609.45</v>
+      </c>
+      <c r="F78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79">
+        <v>1471.75</v>
+      </c>
+      <c r="F79" t="s">
         <v>60</v>
       </c>
     </row>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -629,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -981,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1041,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1081,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1101,7 +1107,7 @@
         <v>102.31</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1121,7 +1127,7 @@
         <v>103.59</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1141,7 +1147,7 @@
         <v>163.98</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1161,7 +1167,7 @@
         <v>339.2</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1181,7 +1187,7 @@
         <v>690.6799999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1201,7 +1207,7 @@
         <v>713.3200000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1221,7 +1227,7 @@
         <v>1415.54</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1241,7 +1247,7 @@
         <v>1655.14</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1261,7 +1267,7 @@
         <v>1887.13</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,25 +1275,25 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
-        <v>2243.29</v>
+        <v>2241.86</v>
       </c>
       <c r="D35">
         <v>924.54</v>
       </c>
       <c r="E35">
-        <v>1318.75</v>
+        <v>1317.32</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J35">
-        <v>1318.75</v>
+        <v>1317.32</v>
       </c>
       <c r="K35">
-        <v>58.79</v>
+        <v>58.76</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,25 +1301,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D36">
         <v>870.89</v>
       </c>
       <c r="E36">
-        <v>1733.25</v>
+        <v>1733.54</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J36">
-        <v>1526</v>
+        <v>1525.43</v>
       </c>
       <c r="K36">
-        <v>62.67</v>
+        <v>62.66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,25 +1327,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D37">
         <v>958.0599999999999</v>
       </c>
       <c r="E37">
-        <v>2216.09</v>
+        <v>2214.8</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J37">
-        <v>1756.03</v>
+        <v>1755.22</v>
       </c>
       <c r="K37">
-        <v>65.05</v>
+        <v>65.04000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>3333.57</v>
@@ -1359,13 +1365,13 @@
         <v>2493.43</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J38">
-        <v>1940.38</v>
+        <v>1939.77</v>
       </c>
       <c r="K38">
-        <v>67.48999999999999</v>
+        <v>67.48</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,13 +1379,13 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>833.74</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1387,13 +1393,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>787.47</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,13 +1407,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>778.87</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1415,13 +1421,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>881.5700000000001</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1429,13 +1435,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>899.55</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1443,19 +1449,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D44">
         <v>835.8099999999999</v>
       </c>
       <c r="E44">
-        <v>1768.34</v>
+        <v>1768.62</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>1.05</v>
@@ -1467,7 +1473,7 @@
         <v>1403.62</v>
       </c>
       <c r="J44">
-        <v>1905.97</v>
+        <v>1905.54</v>
       </c>
       <c r="K44">
         <v>67.56999999999999</v>
@@ -1478,25 +1484,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D45">
         <v>857.17</v>
       </c>
       <c r="E45">
-        <v>2316.97</v>
+        <v>2315.69</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J45">
-        <v>1974.47</v>
+        <v>1973.9</v>
       </c>
       <c r="K45">
-        <v>68.48</v>
+        <v>68.47</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1504,7 +1510,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>3333.57</v>
@@ -1516,10 +1522,10 @@
         <v>2459.2</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J46">
-        <v>2043.72</v>
+        <v>2043.23</v>
       </c>
       <c r="K46">
         <v>69.23</v>
@@ -1530,13 +1536,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47">
         <v>904.05</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1544,13 +1550,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48">
         <v>919.01</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1558,13 +1564,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49">
         <v>943.38</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1572,13 +1578,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>1671.43</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1586,13 +1592,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>1709.37</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1600,13 +1606,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52">
         <v>894.22</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1614,19 +1620,19 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D53">
         <v>836.58</v>
       </c>
       <c r="E53">
-        <v>2337.56</v>
+        <v>2336.28</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1638,7 +1644,7 @@
         <v>1772.05</v>
       </c>
       <c r="J53">
-        <v>2080.45</v>
+        <v>2079.86</v>
       </c>
       <c r="K53">
         <v>69.78</v>
@@ -1649,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>3333.57</v>
@@ -1661,13 +1667,13 @@
         <v>2462.05</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J54">
-        <v>2122.85</v>
+        <v>2122.32</v>
       </c>
       <c r="K54">
-        <v>70.23999999999999</v>
+        <v>70.23</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1675,13 +1681,13 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D55">
         <v>902.85</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1689,13 +1695,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D56">
         <v>922.8099999999999</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1703,13 +1709,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D57">
         <v>997.4</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1717,13 +1723,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D58">
         <v>1068.91</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1731,13 +1737,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59">
         <v>1774.31</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1745,13 +1751,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60">
         <v>838.65</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1759,13 +1765,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>888.41</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1773,7 +1779,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C62">
         <v>3333.57</v>
@@ -1785,7 +1791,7 @@
         <v>2551.07</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G62">
         <v>0.98</v>
@@ -1797,10 +1803,10 @@
         <v>2389.97</v>
       </c>
       <c r="J62">
-        <v>2165.67</v>
+        <v>2165.2</v>
       </c>
       <c r="K62">
-        <v>70.87</v>
+        <v>70.86</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1808,13 +1814,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D63">
         <v>783.4400000000001</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1822,13 +1828,13 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D64">
         <v>850.51</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1836,13 +1842,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D65">
         <v>910.75</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1850,13 +1856,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D66">
         <v>1002.7</v>
       </c>
       <c r="F66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1864,13 +1870,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D67">
         <v>1098.72</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1878,13 +1884,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D68">
         <v>1193.53</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1892,13 +1898,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D69">
         <v>1321.06</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1906,13 +1912,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>1523.38</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1920,7 +1926,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71">
         <v>3333.57</v>
@@ -1932,7 +1938,7 @@
         <v>2398.17</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G71">
         <v>0.8</v>
@@ -1944,7 +1950,7 @@
         <v>1952.14</v>
       </c>
       <c r="J71">
-        <v>2186.81</v>
+        <v>2186.38</v>
       </c>
       <c r="K71">
         <v>70.95999999999999</v>
@@ -1955,13 +1961,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D72">
         <v>1074.3</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1969,13 +1975,13 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D73">
         <v>811.55</v>
       </c>
       <c r="F73" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -1983,13 +1989,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D74">
         <v>1419.86</v>
       </c>
       <c r="F74" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -1997,13 +2003,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D75">
         <v>1660.02</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2011,13 +2017,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D76">
         <v>1516.25</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2025,13 +2031,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D77">
         <v>528.5700000000001</v>
       </c>
       <c r="F77" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2039,13 +2045,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D78">
         <v>609.45</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2053,13 +2059,145 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D79">
         <v>1471.75</v>
       </c>
       <c r="F79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80">
+        <v>856.21</v>
+      </c>
+      <c r="F80" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80">
+        <v>75.83</v>
+      </c>
+      <c r="I80">
+        <v>2527.94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>803.9299999999999</v>
+      </c>
+      <c r="F81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82">
+        <v>1015.03</v>
+      </c>
+      <c r="F82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83">
+        <v>788.13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84">
+        <v>1132.93</v>
+      </c>
+      <c r="F84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85">
+        <v>1147</v>
+      </c>
+      <c r="F85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86">
+        <v>1027.64</v>
+      </c>
+      <c r="F86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
         <v>60</v>
+      </c>
+      <c r="D87">
+        <v>1123.07</v>
+      </c>
+      <c r="F87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88">
+        <v>1330.58</v>
+      </c>
+      <c r="F88" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1067,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1107,7 +1113,7 @@
         <v>102.31</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1127,7 +1133,7 @@
         <v>103.59</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1147,7 +1153,7 @@
         <v>163.98</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1167,7 +1173,7 @@
         <v>339.2</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1187,7 +1193,7 @@
         <v>690.6799999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1207,7 +1213,7 @@
         <v>713.3200000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1227,7 +1233,7 @@
         <v>1415.54</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1247,7 +1253,7 @@
         <v>1655.14</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1267,7 +1273,7 @@
         <v>1887.13</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>2241.86</v>
@@ -1287,7 +1293,7 @@
         <v>1317.32</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J35">
         <v>1317.32</v>
@@ -1301,22 +1307,22 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D36">
         <v>870.89</v>
       </c>
       <c r="E36">
-        <v>1733.54</v>
+        <v>1734.11</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J36">
-        <v>1525.43</v>
+        <v>1525.71</v>
       </c>
       <c r="K36">
         <v>62.66</v>
@@ -1327,25 +1333,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D37">
         <v>958.0599999999999</v>
       </c>
       <c r="E37">
-        <v>2214.8</v>
+        <v>2216.23</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J37">
-        <v>1755.22</v>
+        <v>1755.89</v>
       </c>
       <c r="K37">
-        <v>65.04000000000001</v>
+        <v>65.05</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,25 +1359,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D38">
         <v>840.14</v>
       </c>
       <c r="E38">
-        <v>2493.43</v>
+        <v>2495.15</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J38">
-        <v>1939.77</v>
+        <v>1940.7</v>
       </c>
       <c r="K38">
-        <v>67.48</v>
+        <v>67.48999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1379,13 +1385,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C39">
+        <v>3085.57</v>
       </c>
       <c r="D39">
         <v>833.74</v>
       </c>
+      <c r="E39">
+        <v>2251.83</v>
+      </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J39">
+        <v>2002.93</v>
+      </c>
+      <c r="K39">
+        <v>68.59</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,13 +1411,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>3141</v>
       </c>
       <c r="D40">
         <v>787.47</v>
       </c>
+      <c r="E40">
+        <v>2353.53</v>
+      </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J40">
+        <v>2061.36</v>
+      </c>
+      <c r="K40">
+        <v>69.64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1407,13 +1437,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>778.87</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1421,13 +1451,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>881.5700000000001</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1435,13 +1465,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>899.55</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1449,19 +1479,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D44">
         <v>835.8099999999999</v>
       </c>
       <c r="E44">
-        <v>1768.62</v>
+        <v>1769.19</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G44">
         <v>1.05</v>
@@ -1473,10 +1503,10 @@
         <v>1403.62</v>
       </c>
       <c r="J44">
-        <v>1905.54</v>
+        <v>2019.62</v>
       </c>
       <c r="K44">
-        <v>67.56999999999999</v>
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1484,25 +1514,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D45">
         <v>857.17</v>
       </c>
       <c r="E45">
-        <v>2315.69</v>
+        <v>2317.11</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45">
-        <v>1973.9</v>
+        <v>2056.81</v>
       </c>
       <c r="K45">
-        <v>68.47</v>
+        <v>69.84999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1510,25 +1540,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D46">
         <v>874.37</v>
       </c>
       <c r="E46">
-        <v>2459.2</v>
+        <v>2460.91</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J46">
-        <v>2043.23</v>
+        <v>2101.71</v>
       </c>
       <c r="K46">
-        <v>69.23</v>
+        <v>70.28</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1536,13 +1566,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>3085.57</v>
       </c>
       <c r="D47">
         <v>904.05</v>
       </c>
+      <c r="E47">
+        <v>2181.52</v>
+      </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J47">
+        <v>2109.69</v>
+      </c>
+      <c r="K47">
+        <v>70.33</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1550,13 +1592,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C48">
+        <v>3141</v>
       </c>
       <c r="D48">
         <v>919.01</v>
       </c>
+      <c r="E48">
+        <v>2221.99</v>
+      </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J48">
+        <v>2119.9</v>
+      </c>
+      <c r="K48">
+        <v>70.36</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1564,13 +1618,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>943.38</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1578,13 +1632,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>1671.43</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1592,13 +1646,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>1709.37</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1606,13 +1660,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>894.22</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1620,19 +1674,19 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D53">
         <v>836.58</v>
       </c>
       <c r="E53">
-        <v>2336.28</v>
+        <v>2337.71</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1644,10 +1698,10 @@
         <v>1772.05</v>
       </c>
       <c r="J53">
-        <v>2079.86</v>
+        <v>2138.05</v>
       </c>
       <c r="K53">
-        <v>69.78</v>
+        <v>70.64</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1655,25 +1709,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D54">
         <v>871.52</v>
       </c>
       <c r="E54">
-        <v>2462.05</v>
+        <v>2463.76</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J54">
-        <v>2122.32</v>
+        <v>2163.11</v>
       </c>
       <c r="K54">
-        <v>70.23</v>
+        <v>70.89</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1681,13 +1735,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>3085.57</v>
       </c>
       <c r="D55">
         <v>902.85</v>
       </c>
+      <c r="E55">
+        <v>2182.72</v>
+      </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J55">
+        <v>2164.51</v>
+      </c>
+      <c r="K55">
+        <v>70.88</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1695,13 +1761,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>3141</v>
       </c>
       <c r="D56">
         <v>922.8099999999999</v>
       </c>
+      <c r="E56">
+        <v>2218.19</v>
+      </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J56">
+        <v>2168.09</v>
+      </c>
+      <c r="K56">
+        <v>70.86</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1709,13 +1787,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D57">
         <v>997.4</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1723,13 +1801,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <v>1068.91</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1737,13 +1815,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59">
         <v>1774.31</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1751,13 +1829,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D60">
         <v>838.65</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1765,13 +1843,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61">
         <v>888.41</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1779,19 +1857,19 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C62">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D62">
         <v>782.5</v>
       </c>
       <c r="E62">
-        <v>2551.07</v>
+        <v>2552.79</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G62">
         <v>0.98</v>
@@ -1803,10 +1881,10 @@
         <v>2389.97</v>
       </c>
       <c r="J62">
-        <v>2165.2</v>
+        <v>2192.13</v>
       </c>
       <c r="K62">
-        <v>70.86</v>
+        <v>71.20999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1814,13 +1892,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C63">
+        <v>3085.57</v>
       </c>
       <c r="D63">
         <v>783.4400000000001</v>
       </c>
+      <c r="E63">
+        <v>2302.13</v>
+      </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J63">
+        <v>2198.6</v>
+      </c>
+      <c r="K63">
+        <v>71.41</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1828,13 +1918,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C64">
+        <v>3141</v>
       </c>
       <c r="D64">
         <v>850.51</v>
       </c>
+      <c r="E64">
+        <v>2290.49</v>
+      </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J64">
+        <v>2203.7</v>
+      </c>
+      <c r="K64">
+        <v>71.5</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1842,13 +1944,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D65">
         <v>910.75</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1856,13 +1958,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D66">
         <v>1002.7</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1870,13 +1972,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D67">
         <v>1098.72</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1884,13 +1986,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D68">
         <v>1193.53</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1898,13 +2000,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>1321.06</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1912,13 +2014,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>1523.38</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1926,19 +2028,19 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C71">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D71">
         <v>935.4</v>
       </c>
       <c r="E71">
-        <v>2398.17</v>
+        <v>2399.89</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G71">
         <v>0.8</v>
@@ -1950,10 +2052,10 @@
         <v>1952.14</v>
       </c>
       <c r="J71">
-        <v>2186.38</v>
+        <v>2214.03</v>
       </c>
       <c r="K71">
-        <v>70.95999999999999</v>
+        <v>71.52</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1961,13 +2063,25 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C72">
+        <v>3085.57</v>
       </c>
       <c r="D72">
         <v>1074.3</v>
       </c>
+      <c r="E72">
+        <v>2011.27</v>
+      </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J72">
+        <v>2203.89</v>
+      </c>
+      <c r="K72">
+        <v>71.2</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -1975,13 +2089,25 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C73">
+        <v>3141</v>
       </c>
       <c r="D73">
         <v>811.55</v>
       </c>
+      <c r="E73">
+        <v>2329.45</v>
+      </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J73">
+        <v>2209.87</v>
+      </c>
+      <c r="K73">
+        <v>71.34999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -1989,13 +2115,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D74">
         <v>1419.86</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2003,13 +2129,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D75">
         <v>1660.02</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2017,13 +2143,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D76">
         <v>1516.25</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2031,13 +2157,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D77">
         <v>528.5700000000001</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2045,13 +2171,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D78">
         <v>609.45</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2059,13 +2185,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D79">
         <v>1471.75</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2073,13 +2199,19 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C80">
+        <v>3085.57</v>
       </c>
       <c r="D80">
         <v>856.21</v>
       </c>
+      <c r="E80">
+        <v>2229.36</v>
+      </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H80">
         <v>75.83</v>
@@ -2087,117 +2219,441 @@
       <c r="I80">
         <v>2527.94</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="J80">
+        <v>2210.76</v>
+      </c>
+      <c r="K80">
+        <v>71.39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C81">
+        <v>3141</v>
       </c>
       <c r="D81">
         <v>803.9299999999999</v>
       </c>
+      <c r="E81">
+        <v>2337.07</v>
+      </c>
       <c r="F81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="J81">
+        <v>2216.25</v>
+      </c>
+      <c r="K81">
+        <v>71.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D82">
         <v>1015.03</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D83">
         <v>788.13</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D84">
         <v>1132.93</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D85">
         <v>1147</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D86">
         <v>1027.64</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D87">
         <v>1123.07</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D88">
         <v>1330.58</v>
       </c>
       <c r="F88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89">
+        <v>3085.57</v>
+      </c>
+      <c r="D89">
+        <v>925.25</v>
+      </c>
+      <c r="E89">
+        <v>2160.32</v>
+      </c>
+      <c r="F89" t="s">
+        <v>64</v>
+      </c>
+      <c r="G89">
+        <v>0.92</v>
+      </c>
+      <c r="H89">
+        <v>70.38</v>
+      </c>
+      <c r="I89">
+        <v>2346.31</v>
+      </c>
+      <c r="J89">
+        <v>2213.92</v>
+      </c>
+      <c r="K89">
+        <v>71.45999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90">
+        <v>3141</v>
+      </c>
+      <c r="D90">
+        <v>765.45</v>
+      </c>
+      <c r="E90">
+        <v>2375.55</v>
+      </c>
+      <c r="F90" t="s">
+        <v>64</v>
+      </c>
+      <c r="J90">
+        <v>2220.38</v>
+      </c>
+      <c r="K90">
+        <v>71.62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91">
+        <v>914.02</v>
+      </c>
+      <c r="F91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92">
+        <v>919.39</v>
+      </c>
+      <c r="F92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93">
+        <v>898.15</v>
+      </c>
+      <c r="F93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>816.33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <v>862.0700000000001</v>
+      </c>
+      <c r="F95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96">
+        <v>1388.58</v>
+      </c>
+      <c r="F96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
         <v>62</v>
+      </c>
+      <c r="D97">
+        <v>1435.93</v>
+      </c>
+      <c r="F97" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98">
+        <v>3141</v>
+      </c>
+      <c r="D98">
+        <v>993.28</v>
+      </c>
+      <c r="E98">
+        <v>2147.72</v>
+      </c>
+      <c r="F98" t="s">
+        <v>64</v>
+      </c>
+      <c r="G98">
+        <v>0.99</v>
+      </c>
+      <c r="H98">
+        <v>74.48999999999999</v>
+      </c>
+      <c r="I98">
+        <v>2298.3</v>
+      </c>
+      <c r="J98">
+        <v>2217.59</v>
+      </c>
+      <c r="K98">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99">
+        <v>986.08</v>
+      </c>
+      <c r="F99" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100">
+        <v>1073.31</v>
+      </c>
+      <c r="F100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101">
+        <v>1086.86</v>
+      </c>
+      <c r="F101" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102">
+        <v>1099.01</v>
+      </c>
+      <c r="F102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103">
+        <v>1119.47</v>
+      </c>
+      <c r="F103" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104">
+        <v>1227.98</v>
+      </c>
+      <c r="F104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105">
+        <v>1311.51</v>
+      </c>
+      <c r="F105" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106">
+        <v>1413.06</v>
+      </c>
+      <c r="F106" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1053,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1073,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1093,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1113,7 +1119,7 @@
         <v>102.31</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1133,7 +1139,7 @@
         <v>103.59</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1153,7 +1159,7 @@
         <v>163.98</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1173,7 +1179,7 @@
         <v>339.2</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1193,7 +1199,7 @@
         <v>690.6799999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1213,7 +1219,7 @@
         <v>713.3200000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1233,7 +1239,7 @@
         <v>1415.54</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1253,7 +1259,7 @@
         <v>1655.14</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1273,7 +1279,7 @@
         <v>1887.13</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>2241.86</v>
@@ -1293,7 +1299,7 @@
         <v>1317.32</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J35">
         <v>1317.32</v>
@@ -1307,25 +1313,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D36">
         <v>870.89</v>
       </c>
       <c r="E36">
-        <v>1734.11</v>
+        <v>1734.54</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J36">
-        <v>1525.71</v>
+        <v>1525.93</v>
       </c>
       <c r="K36">
-        <v>62.66</v>
+        <v>62.67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,19 +1339,19 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D37">
         <v>958.0599999999999</v>
       </c>
       <c r="E37">
-        <v>2216.23</v>
+        <v>2215.8</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J37">
         <v>1755.89</v>
@@ -1359,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>3335.29</v>
@@ -1371,7 +1377,7 @@
         <v>2495.15</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J38">
         <v>1940.7</v>
@@ -1385,7 +1391,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>3085.57</v>
@@ -1397,7 +1403,7 @@
         <v>2251.83</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J39">
         <v>2002.93</v>
@@ -1411,25 +1417,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D40">
         <v>787.47</v>
       </c>
       <c r="E40">
-        <v>2353.53</v>
+        <v>2363.1</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J40">
-        <v>2061.36</v>
+        <v>2062.96</v>
       </c>
       <c r="K40">
-        <v>69.64</v>
+        <v>69.66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1437,13 +1443,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41">
         <v>778.87</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1451,13 +1457,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <v>881.5700000000001</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1465,13 +1471,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D43">
         <v>899.55</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1479,19 +1485,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D44">
         <v>835.8099999999999</v>
       </c>
       <c r="E44">
-        <v>1769.19</v>
+        <v>1769.62</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G44">
         <v>1.05</v>
@@ -1503,10 +1509,10 @@
         <v>1403.62</v>
       </c>
       <c r="J44">
-        <v>2019.62</v>
+        <v>2021.05</v>
       </c>
       <c r="K44">
-        <v>69.40000000000001</v>
+        <v>69.41</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1514,25 +1520,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D45">
         <v>857.17</v>
       </c>
       <c r="E45">
-        <v>2317.11</v>
+        <v>2316.69</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J45">
-        <v>2056.81</v>
+        <v>2058.01</v>
       </c>
       <c r="K45">
-        <v>69.84999999999999</v>
+        <v>69.86</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1540,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>3335.29</v>
@@ -1552,13 +1558,13 @@
         <v>2460.91</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J46">
-        <v>2101.71</v>
+        <v>2102.77</v>
       </c>
       <c r="K46">
-        <v>70.28</v>
+        <v>70.29000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1566,7 +1572,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>3085.57</v>
@@ -1578,10 +1584,10 @@
         <v>2181.52</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J47">
-        <v>2109.69</v>
+        <v>2110.65</v>
       </c>
       <c r="K47">
         <v>70.33</v>
@@ -1592,25 +1598,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D48">
         <v>919.01</v>
       </c>
       <c r="E48">
-        <v>2221.99</v>
+        <v>2231.56</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J48">
-        <v>2119.9</v>
+        <v>2121.64</v>
       </c>
       <c r="K48">
-        <v>70.36</v>
+        <v>70.38</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1618,13 +1624,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>943.38</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1632,13 +1638,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50">
         <v>1671.43</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1646,13 +1652,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>1709.37</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1660,13 +1666,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>894.22</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1674,19 +1680,19 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D53">
         <v>836.58</v>
       </c>
       <c r="E53">
-        <v>2337.71</v>
+        <v>2337.28</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1698,10 +1704,10 @@
         <v>1772.05</v>
       </c>
       <c r="J53">
-        <v>2138.05</v>
+        <v>2139.61</v>
       </c>
       <c r="K53">
-        <v>70.64</v>
+        <v>70.65000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1709,7 +1715,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54">
         <v>3335.29</v>
@@ -1721,13 +1727,13 @@
         <v>2463.76</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J54">
-        <v>2163.11</v>
+        <v>2164.54</v>
       </c>
       <c r="K54">
-        <v>70.89</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1735,7 +1741,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>3085.57</v>
@@ -1747,13 +1753,13 @@
         <v>2182.72</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J55">
-        <v>2164.51</v>
+        <v>2165.84</v>
       </c>
       <c r="K55">
-        <v>70.88</v>
+        <v>70.89</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1761,25 +1767,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D56">
         <v>922.8099999999999</v>
       </c>
       <c r="E56">
-        <v>2218.19</v>
+        <v>2227.77</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J56">
-        <v>2168.09</v>
+        <v>2169.97</v>
       </c>
       <c r="K56">
-        <v>70.86</v>
+        <v>70.88</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1787,13 +1793,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <v>997.4</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1801,13 +1807,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58">
         <v>1068.91</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1815,13 +1821,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59">
         <v>1774.31</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1829,13 +1835,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>838.65</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1843,13 +1849,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <v>888.41</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1857,7 +1863,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C62">
         <v>3335.29</v>
@@ -1869,7 +1875,7 @@
         <v>2552.79</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G62">
         <v>0.98</v>
@@ -1881,10 +1887,10 @@
         <v>2389.97</v>
       </c>
       <c r="J62">
-        <v>2192.13</v>
+        <v>2193.9</v>
       </c>
       <c r="K62">
-        <v>71.20999999999999</v>
+        <v>71.23</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1892,7 +1898,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63">
         <v>3085.57</v>
@@ -1904,13 +1910,13 @@
         <v>2302.13</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J63">
-        <v>2198.6</v>
+        <v>2200.26</v>
       </c>
       <c r="K63">
-        <v>71.41</v>
+        <v>71.43000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1918,25 +1924,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D64">
         <v>850.51</v>
       </c>
       <c r="E64">
-        <v>2290.49</v>
+        <v>2300.06</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J64">
-        <v>2203.7</v>
+        <v>2205.81</v>
       </c>
       <c r="K64">
-        <v>71.5</v>
+        <v>71.52</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1944,13 +1950,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D65">
         <v>910.75</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1958,13 +1964,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D66">
         <v>1002.7</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1972,13 +1978,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D67">
         <v>1098.72</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1986,13 +1992,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68">
         <v>1193.53</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2000,13 +2006,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D69">
         <v>1321.06</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2014,13 +2020,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <v>1523.38</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2028,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71">
         <v>3335.29</v>
@@ -2040,7 +2046,7 @@
         <v>2399.89</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G71">
         <v>0.8</v>
@@ -2052,10 +2058,10 @@
         <v>1952.14</v>
       </c>
       <c r="J71">
-        <v>2214.03</v>
+        <v>2216.02</v>
       </c>
       <c r="K71">
-        <v>71.52</v>
+        <v>71.54000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2063,7 +2069,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C72">
         <v>3085.57</v>
@@ -2075,13 +2081,13 @@
         <v>2011.27</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J72">
-        <v>2203.89</v>
+        <v>2205.79</v>
       </c>
       <c r="K72">
-        <v>71.2</v>
+        <v>71.22</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2089,25 +2095,25 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D73">
         <v>811.55</v>
       </c>
       <c r="E73">
-        <v>2329.45</v>
+        <v>2339.02</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J73">
-        <v>2209.87</v>
+        <v>2212.13</v>
       </c>
       <c r="K73">
-        <v>71.34999999999999</v>
+        <v>71.36</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2115,13 +2121,13 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D74">
         <v>1419.86</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2129,13 +2135,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D75">
         <v>1660.02</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2143,13 +2149,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D76">
         <v>1516.25</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2157,13 +2163,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D77">
         <v>528.5700000000001</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2171,13 +2177,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D78">
         <v>609.45</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2185,13 +2191,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D79">
         <v>1471.75</v>
       </c>
       <c r="F79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2199,7 +2205,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C80">
         <v>3085.57</v>
@@ -2211,7 +2217,7 @@
         <v>2229.36</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H80">
         <v>75.83</v>
@@ -2220,10 +2226,10 @@
         <v>2527.94</v>
       </c>
       <c r="J80">
-        <v>2210.76</v>
+        <v>2212.91</v>
       </c>
       <c r="K80">
-        <v>71.39</v>
+        <v>71.41</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2231,25 +2237,25 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C81">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D81">
         <v>803.9299999999999</v>
       </c>
       <c r="E81">
-        <v>2337.07</v>
+        <v>2346.64</v>
       </c>
       <c r="F81" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J81">
-        <v>2216.25</v>
+        <v>2218.73</v>
       </c>
       <c r="K81">
-        <v>71.52</v>
+        <v>71.54000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2257,13 +2263,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D82">
         <v>1015.03</v>
       </c>
       <c r="F82" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2271,13 +2277,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D83">
         <v>788.13</v>
       </c>
       <c r="F83" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2285,13 +2291,13 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D84">
         <v>1132.93</v>
       </c>
       <c r="F84" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2299,13 +2305,13 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D85">
         <v>1147</v>
       </c>
       <c r="F85" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2313,13 +2319,13 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D86">
         <v>1027.64</v>
       </c>
       <c r="F86" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2327,13 +2333,13 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D87">
         <v>1123.07</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2341,13 +2347,13 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D88">
         <v>1330.58</v>
       </c>
       <c r="F88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2355,7 +2361,7 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C89">
         <v>3085.57</v>
@@ -2367,7 +2373,7 @@
         <v>2160.32</v>
       </c>
       <c r="F89" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G89">
         <v>0.92</v>
@@ -2379,10 +2385,10 @@
         <v>2346.31</v>
       </c>
       <c r="J89">
-        <v>2213.92</v>
+        <v>2216.29</v>
       </c>
       <c r="K89">
-        <v>71.45999999999999</v>
+        <v>71.48</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2390,25 +2396,25 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C90">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D90">
         <v>765.45</v>
       </c>
       <c r="E90">
-        <v>2375.55</v>
+        <v>2385.12</v>
       </c>
       <c r="F90" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J90">
-        <v>2220.38</v>
+        <v>2223.05</v>
       </c>
       <c r="K90">
-        <v>71.62</v>
+        <v>71.64</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2416,13 +2422,13 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D91">
         <v>914.02</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2430,13 +2436,13 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D92">
         <v>919.39</v>
       </c>
       <c r="F92" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2444,13 +2450,13 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D93">
         <v>898.15</v>
       </c>
       <c r="F93" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2458,13 +2464,13 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D94">
         <v>816.33</v>
       </c>
       <c r="F94" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2472,13 +2478,13 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D95">
         <v>862.0700000000001</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2486,13 +2492,13 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D96">
         <v>1388.58</v>
       </c>
       <c r="F96" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2500,13 +2506,13 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D97">
         <v>1435.93</v>
       </c>
       <c r="F97" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2514,19 +2520,19 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D98">
         <v>993.28</v>
       </c>
       <c r="E98">
-        <v>2147.72</v>
+        <v>2157.29</v>
       </c>
       <c r="F98" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G98">
         <v>0.99</v>
@@ -2538,10 +2544,10 @@
         <v>2298.3</v>
       </c>
       <c r="J98">
-        <v>2217.59</v>
+        <v>2220.52</v>
       </c>
       <c r="K98">
-        <v>71.5</v>
+        <v>71.52</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2549,13 +2555,13 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D99">
         <v>986.08</v>
       </c>
       <c r="F99" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2563,13 +2569,13 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D100">
         <v>1073.31</v>
       </c>
       <c r="F100" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2577,13 +2583,13 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D101">
         <v>1086.86</v>
       </c>
       <c r="F101" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2591,13 +2597,13 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D102">
         <v>1099.01</v>
       </c>
       <c r="F102" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2605,13 +2611,13 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D103">
         <v>1119.47</v>
       </c>
       <c r="F103" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2619,13 +2625,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D104">
         <v>1227.98</v>
       </c>
       <c r="F104" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2633,13 +2639,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D105">
         <v>1311.51</v>
       </c>
       <c r="F105" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -2647,13 +2653,295 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D106">
         <v>1413.06</v>
       </c>
       <c r="F106" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107">
+        <v>3150.57</v>
+      </c>
+      <c r="D107">
+        <v>765.45</v>
+      </c>
+      <c r="E107">
+        <v>2385.12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>66</v>
+      </c>
+      <c r="G107">
+        <v>0.93</v>
+      </c>
+      <c r="H107">
+        <v>70.01000000000001</v>
+      </c>
+      <c r="I107">
+        <v>2160.32</v>
+      </c>
+      <c r="J107">
+        <v>2226.61</v>
+      </c>
+      <c r="K107">
+        <v>71.68000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108">
+        <v>914.02</v>
+      </c>
+      <c r="F108" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109">
+        <v>919.39</v>
+      </c>
+      <c r="F109" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110">
+        <v>898.15</v>
+      </c>
+      <c r="F110" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111">
+        <v>816.33</v>
+      </c>
+      <c r="F111" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112">
+        <v>862.1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113">
+        <v>1388.7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114">
+        <v>1436.3</v>
+      </c>
+      <c r="F114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
         <v>64</v>
+      </c>
+      <c r="D115">
+        <v>1685.59</v>
+      </c>
+      <c r="F115" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+      <c r="D116">
+        <v>1419.61</v>
+      </c>
+      <c r="F116" t="s">
+        <v>66</v>
+      </c>
+      <c r="G116">
+        <v>0.95</v>
+      </c>
+      <c r="H116">
+        <v>74.23999999999999</v>
+      </c>
+      <c r="I116">
+        <v>2339.04</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117">
+        <v>1659.64</v>
+      </c>
+      <c r="F117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118">
+        <v>1517.15</v>
+      </c>
+      <c r="F118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119">
+        <v>528.5700000000001</v>
+      </c>
+      <c r="F119" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120">
+        <v>609.45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>62</v>
+      </c>
+      <c r="D121">
+        <v>1472.51</v>
+      </c>
+      <c r="F121" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122">
+        <v>1571.14</v>
+      </c>
+      <c r="F122" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
+        <v>64</v>
+      </c>
+      <c r="D123">
+        <v>821</v>
+      </c>
+      <c r="F123" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124">
+        <v>1950.94</v>
+      </c>
+      <c r="F124" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="69">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>28 Mar -- 03 Apr 2021</t>
+  </si>
+  <si>
+    <t>04 Apr -- 10 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -630,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -659,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -999,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1019,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1059,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1099,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1119,7 +1125,7 @@
         <v>102.31</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1139,7 +1145,7 @@
         <v>103.59</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1159,7 +1165,7 @@
         <v>163.98</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1179,7 +1185,7 @@
         <v>339.2</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1199,7 +1205,7 @@
         <v>690.6799999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1219,7 +1225,7 @@
         <v>713.3200000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1239,7 +1245,7 @@
         <v>1415.54</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1259,7 +1265,7 @@
         <v>1655.14</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1279,7 +1285,7 @@
         <v>1887.13</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,25 +1293,25 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
-        <v>2241.86</v>
+        <v>2376.86</v>
       </c>
       <c r="D35">
         <v>924.54</v>
       </c>
       <c r="E35">
-        <v>1317.32</v>
+        <v>1452.32</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J35">
-        <v>1317.32</v>
+        <v>1452.32</v>
       </c>
       <c r="K35">
-        <v>58.76</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,25 +1319,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>2605.43</v>
+        <v>2683.43</v>
       </c>
       <c r="D36">
         <v>870.89</v>
       </c>
       <c r="E36">
-        <v>1734.54</v>
+        <v>1812.54</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J36">
-        <v>1525.93</v>
+        <v>1632.43</v>
       </c>
       <c r="K36">
-        <v>62.67</v>
+        <v>64.31999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1339,25 +1345,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D37">
         <v>958.0599999999999</v>
       </c>
       <c r="E37">
-        <v>2215.8</v>
+        <v>2190.09</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J37">
-        <v>1755.89</v>
+        <v>1818.31</v>
       </c>
       <c r="K37">
-        <v>65.05</v>
+        <v>66.06999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1365,25 +1371,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D38">
         <v>840.14</v>
       </c>
       <c r="E38">
-        <v>2495.15</v>
+        <v>2494.15</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J38">
-        <v>1940.7</v>
+        <v>1987.27</v>
       </c>
       <c r="K38">
-        <v>67.48999999999999</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1391,25 +1397,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D39">
         <v>833.74</v>
       </c>
       <c r="E39">
-        <v>2251.83</v>
+        <v>2225.26</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J39">
-        <v>2002.93</v>
+        <v>2034.87</v>
       </c>
       <c r="K39">
-        <v>68.59</v>
+        <v>69.15000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1417,25 +1423,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D40">
         <v>787.47</v>
       </c>
       <c r="E40">
-        <v>2363.1</v>
+        <v>2342.82</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J40">
-        <v>2062.96</v>
+        <v>2086.19</v>
       </c>
       <c r="K40">
-        <v>69.66</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1443,13 +1449,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>2986.71</v>
       </c>
       <c r="D41">
         <v>778.87</v>
       </c>
+      <c r="E41">
+        <v>2207.84</v>
+      </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J41">
+        <v>2103.57</v>
+      </c>
+      <c r="K41">
+        <v>70.65000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1457,13 +1475,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>2487.29</v>
       </c>
       <c r="D42">
         <v>881.5700000000001</v>
       </c>
+      <c r="E42">
+        <v>1605.71</v>
+      </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J42">
+        <v>2041.34</v>
+      </c>
+      <c r="K42">
+        <v>69.89</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1471,13 +1501,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>1906.71</v>
       </c>
       <c r="D43">
         <v>899.55</v>
       </c>
+      <c r="E43">
+        <v>1007.17</v>
+      </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J43">
+        <v>1926.43</v>
+      </c>
+      <c r="K43">
+        <v>67.98999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1485,19 +1527,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44">
-        <v>2605.43</v>
+        <v>2683.43</v>
       </c>
       <c r="D44">
         <v>835.8099999999999</v>
       </c>
       <c r="E44">
-        <v>1769.62</v>
+        <v>1847.62</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>1.05</v>
@@ -1509,10 +1551,10 @@
         <v>1403.62</v>
       </c>
       <c r="J44">
-        <v>2021.05</v>
+        <v>1918.55</v>
       </c>
       <c r="K44">
-        <v>69.41</v>
+        <v>68.08</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1520,25 +1562,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D45">
         <v>857.17</v>
       </c>
       <c r="E45">
-        <v>2316.69</v>
+        <v>2290.97</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J45">
-        <v>2058.01</v>
+        <v>1952.41</v>
       </c>
       <c r="K45">
-        <v>69.86</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1546,25 +1588,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D46">
         <v>874.37</v>
       </c>
       <c r="E46">
-        <v>2460.91</v>
+        <v>2459.91</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J46">
-        <v>2102.77</v>
+        <v>1994.7</v>
       </c>
       <c r="K46">
-        <v>70.29000000000001</v>
+        <v>68.94</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1572,25 +1614,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D47">
         <v>904.05</v>
       </c>
       <c r="E47">
-        <v>2181.52</v>
+        <v>2154.95</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J47">
-        <v>2110.65</v>
+        <v>2007.03</v>
       </c>
       <c r="K47">
-        <v>70.33</v>
+        <v>69.06</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1598,25 +1640,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D48">
         <v>919.01</v>
       </c>
       <c r="E48">
-        <v>2231.56</v>
+        <v>2211.28</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J48">
-        <v>2121.64</v>
+        <v>2021.62</v>
       </c>
       <c r="K48">
-        <v>70.38</v>
+        <v>69.17</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1624,13 +1666,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>2986.71</v>
       </c>
       <c r="D49">
         <v>943.38</v>
       </c>
+      <c r="E49">
+        <v>2043.34</v>
+      </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J49">
+        <v>2023.06</v>
+      </c>
+      <c r="K49">
+        <v>69.12</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1638,13 +1692,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C50">
+        <v>2487.29</v>
       </c>
       <c r="D50">
         <v>1671.43</v>
       </c>
+      <c r="E50">
+        <v>815.86</v>
+      </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J50">
+        <v>1947.61</v>
+      </c>
+      <c r="K50">
+        <v>66.84999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1652,13 +1718,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>1906.71</v>
       </c>
       <c r="D51">
         <v>1709.37</v>
       </c>
+      <c r="E51">
+        <v>197.34</v>
+      </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J51">
+        <v>1844.66</v>
+      </c>
+      <c r="K51">
+        <v>63.53</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1666,13 +1744,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52">
         <v>894.22</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1680,19 +1758,19 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D53">
         <v>836.58</v>
       </c>
       <c r="E53">
-        <v>2337.28</v>
+        <v>2311.56</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1704,10 +1782,10 @@
         <v>1772.05</v>
       </c>
       <c r="J53">
-        <v>2139.61</v>
+        <v>1870.6</v>
       </c>
       <c r="K53">
-        <v>70.65000000000001</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1715,25 +1793,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D54">
         <v>871.52</v>
       </c>
       <c r="E54">
-        <v>2463.76</v>
+        <v>2462.76</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J54">
-        <v>2164.54</v>
+        <v>1901.76</v>
       </c>
       <c r="K54">
-        <v>70.90000000000001</v>
+        <v>64.59</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1741,25 +1819,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D55">
         <v>902.85</v>
       </c>
       <c r="E55">
-        <v>2182.72</v>
+        <v>2156.15</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J55">
-        <v>2165.84</v>
+        <v>1914.48</v>
       </c>
       <c r="K55">
-        <v>70.89</v>
+        <v>64.89</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1767,25 +1845,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D56">
         <v>922.8099999999999</v>
       </c>
       <c r="E56">
-        <v>2227.77</v>
+        <v>2207.48</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J56">
-        <v>2169.97</v>
+        <v>1928.43</v>
       </c>
       <c r="K56">
-        <v>70.88</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1793,13 +1871,25 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>2986.71</v>
       </c>
       <c r="D57">
         <v>997.4</v>
       </c>
+      <c r="E57">
+        <v>1989.31</v>
+      </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J57">
+        <v>1931.2</v>
+      </c>
+      <c r="K57">
+        <v>65.22</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1807,13 +1897,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>2487.29</v>
       </c>
       <c r="D58">
         <v>1068.91</v>
       </c>
+      <c r="E58">
+        <v>1418.37</v>
+      </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J58">
+        <v>1908.9</v>
+      </c>
+      <c r="K58">
+        <v>64.86</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1821,13 +1923,25 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>1906.71</v>
       </c>
       <c r="D59">
         <v>1774.31</v>
       </c>
+      <c r="E59">
+        <v>132.41</v>
+      </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J59">
+        <v>1834.88</v>
+      </c>
+      <c r="K59">
+        <v>62.45</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1835,13 +1949,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D60">
         <v>838.65</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1849,13 +1963,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D61">
         <v>888.41</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1863,19 +1977,19 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D62">
         <v>782.5</v>
       </c>
       <c r="E62">
-        <v>2552.79</v>
+        <v>2551.79</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G62">
         <v>0.98</v>
@@ -1887,10 +2001,10 @@
         <v>2389.97</v>
       </c>
       <c r="J62">
-        <v>2193.9</v>
+        <v>1863.56</v>
       </c>
       <c r="K62">
-        <v>71.23</v>
+        <v>63.01</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1898,25 +2012,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D63">
         <v>783.4400000000001</v>
       </c>
       <c r="E63">
-        <v>2302.13</v>
+        <v>2275.56</v>
       </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J63">
-        <v>2200.26</v>
+        <v>1879.41</v>
       </c>
       <c r="K63">
-        <v>71.43000000000001</v>
+        <v>63.45</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1924,25 +2038,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D64">
         <v>850.51</v>
       </c>
       <c r="E64">
-        <v>2300.06</v>
+        <v>2279.78</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J64">
-        <v>2205.81</v>
+        <v>1894.23</v>
       </c>
       <c r="K64">
-        <v>71.52</v>
+        <v>63.8</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1950,13 +2064,25 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C65">
+        <v>2986.71</v>
       </c>
       <c r="D65">
         <v>910.75</v>
       </c>
+      <c r="E65">
+        <v>2075.97</v>
+      </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J65">
+        <v>1900.72</v>
+      </c>
+      <c r="K65">
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1964,13 +2090,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C66">
+        <v>2487.29</v>
       </c>
       <c r="D66">
         <v>1002.7</v>
       </c>
+      <c r="E66">
+        <v>1484.59</v>
+      </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J66">
+        <v>1886.38</v>
+      </c>
+      <c r="K66">
+        <v>63.85</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1978,13 +2116,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C67">
+        <v>1906.71</v>
       </c>
       <c r="D67">
         <v>1098.72</v>
       </c>
+      <c r="E67">
+        <v>807.99</v>
+      </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J67">
+        <v>1850.43</v>
+      </c>
+      <c r="K67">
+        <v>63.14</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1992,13 +2142,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D68">
         <v>1193.53</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2006,13 +2156,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D69">
         <v>1321.06</v>
       </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2020,13 +2170,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D70">
         <v>1523.38</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2034,19 +2184,19 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C71">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D71">
         <v>935.4</v>
       </c>
       <c r="E71">
-        <v>2399.89</v>
+        <v>2398.89</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G71">
         <v>0.8</v>
@@ -2058,10 +2208,10 @@
         <v>1952.14</v>
       </c>
       <c r="J71">
-        <v>2216.02</v>
+        <v>1868.12</v>
       </c>
       <c r="K71">
-        <v>71.54000000000001</v>
+        <v>63.42</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2069,25 +2219,25 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C72">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D72">
         <v>1074.3</v>
       </c>
       <c r="E72">
-        <v>2011.27</v>
+        <v>1984.7</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J72">
-        <v>2205.79</v>
+        <v>1871.76</v>
       </c>
       <c r="K72">
-        <v>71.22</v>
+        <v>63.47</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2095,25 +2245,25 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C73">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D73">
         <v>811.55</v>
       </c>
       <c r="E73">
-        <v>2339.02</v>
+        <v>2318.73</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J73">
-        <v>2212.13</v>
+        <v>1885.31</v>
       </c>
       <c r="K73">
-        <v>71.36</v>
+        <v>63.79</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2121,13 +2271,25 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C74">
+        <v>2986.71</v>
       </c>
       <c r="D74">
         <v>1419.86</v>
       </c>
+      <c r="E74">
+        <v>1566.85</v>
+      </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J74">
+        <v>1875.94</v>
+      </c>
+      <c r="K74">
+        <v>63.46</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2135,13 +2297,25 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C75">
+        <v>2487.29</v>
       </c>
       <c r="D75">
         <v>1660.02</v>
       </c>
+      <c r="E75">
+        <v>827.27</v>
+      </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J75">
+        <v>1845.98</v>
+      </c>
+      <c r="K75">
+        <v>62.59</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2149,13 +2323,25 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C76">
+        <v>1906.71</v>
       </c>
       <c r="D76">
         <v>1516.25</v>
       </c>
+      <c r="E76">
+        <v>390.46</v>
+      </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J76">
+        <v>1805.55</v>
+      </c>
+      <c r="K76">
+        <v>61.42</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2163,13 +2349,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D77">
         <v>528.5700000000001</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2177,13 +2363,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D78">
         <v>609.45</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2191,13 +2377,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D79">
         <v>1471.75</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2205,19 +2391,19 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D80">
         <v>856.21</v>
       </c>
       <c r="E80">
-        <v>2229.36</v>
+        <v>2202.79</v>
       </c>
       <c r="F80" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H80">
         <v>75.83</v>
@@ -2226,10 +2412,10 @@
         <v>2527.94</v>
       </c>
       <c r="J80">
-        <v>2212.91</v>
+        <v>1816.29</v>
       </c>
       <c r="K80">
-        <v>71.41</v>
+        <v>61.71</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2237,25 +2423,25 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C81">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D81">
         <v>803.9299999999999</v>
       </c>
       <c r="E81">
-        <v>2346.64</v>
+        <v>2326.36</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J81">
-        <v>2218.73</v>
+        <v>1829.71</v>
       </c>
       <c r="K81">
-        <v>71.54000000000001</v>
+        <v>62.04</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2263,13 +2449,25 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C82">
+        <v>2986.71</v>
       </c>
       <c r="D82">
         <v>1015.03</v>
       </c>
+      <c r="E82">
+        <v>1971.69</v>
+      </c>
       <c r="F82" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J82">
+        <v>1833.35</v>
+      </c>
+      <c r="K82">
+        <v>62.14</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2277,13 +2475,25 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C83">
+        <v>2487.29</v>
       </c>
       <c r="D83">
         <v>788.13</v>
       </c>
+      <c r="E83">
+        <v>1699.16</v>
+      </c>
       <c r="F83" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J83">
+        <v>1829.99</v>
+      </c>
+      <c r="K83">
+        <v>62.3</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2291,13 +2501,25 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C84">
+        <v>1906.71</v>
       </c>
       <c r="D84">
         <v>1132.93</v>
       </c>
+      <c r="E84">
+        <v>773.78</v>
+      </c>
       <c r="F84" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J84">
+        <v>1804.23</v>
+      </c>
+      <c r="K84">
+        <v>61.77</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2305,13 +2527,13 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D85">
         <v>1147</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2319,13 +2541,13 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D86">
         <v>1027.64</v>
       </c>
       <c r="F86" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2333,13 +2555,13 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D87">
         <v>1123.07</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2347,13 +2569,13 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D88">
         <v>1330.58</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2361,19 +2583,19 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C89">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D89">
         <v>925.25</v>
       </c>
       <c r="E89">
-        <v>2160.32</v>
+        <v>2133.75</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G89">
         <v>0.92</v>
@@ -2385,10 +2607,10 @@
         <v>2346.31</v>
       </c>
       <c r="J89">
-        <v>2216.29</v>
+        <v>1812.08</v>
       </c>
       <c r="K89">
-        <v>71.48</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2396,25 +2618,25 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C90">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D90">
         <v>765.45</v>
       </c>
       <c r="E90">
-        <v>2385.12</v>
+        <v>2364.84</v>
       </c>
       <c r="F90" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J90">
-        <v>2223.05</v>
+        <v>1824.93</v>
       </c>
       <c r="K90">
-        <v>71.64</v>
+        <v>62.27</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2422,13 +2644,25 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C91">
+        <v>2986.71</v>
       </c>
       <c r="D91">
         <v>914.02</v>
       </c>
+      <c r="E91">
+        <v>2072.69</v>
+      </c>
       <c r="F91" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J91">
+        <v>1830.56</v>
+      </c>
+      <c r="K91">
+        <v>62.44</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2436,13 +2670,25 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C92">
+        <v>2487.29</v>
       </c>
       <c r="D92">
         <v>919.39</v>
       </c>
+      <c r="E92">
+        <v>1567.9</v>
+      </c>
       <c r="F92" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J92">
+        <v>1824.73</v>
+      </c>
+      <c r="K92">
+        <v>62.45</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2450,13 +2696,25 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C93">
+        <v>1906.71</v>
       </c>
       <c r="D93">
         <v>898.15</v>
       </c>
+      <c r="E93">
+        <v>1008.56</v>
+      </c>
       <c r="F93" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J93">
+        <v>1806.98</v>
+      </c>
+      <c r="K93">
+        <v>62.24</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2464,13 +2722,13 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D94">
         <v>816.33</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2478,13 +2736,13 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D95">
         <v>862.0700000000001</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2492,13 +2750,13 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D96">
         <v>1388.58</v>
       </c>
       <c r="F96" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2506,13 +2764,13 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D97">
         <v>1435.93</v>
       </c>
       <c r="F97" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2520,19 +2778,19 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C98">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D98">
         <v>993.28</v>
       </c>
       <c r="E98">
-        <v>2157.29</v>
+        <v>2137</v>
       </c>
       <c r="F98" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G98">
         <v>0.99</v>
@@ -2544,10 +2802,10 @@
         <v>2298.3</v>
       </c>
       <c r="J98">
-        <v>2220.52</v>
+        <v>1814.01</v>
       </c>
       <c r="K98">
-        <v>71.52</v>
+        <v>62.37</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2555,13 +2813,25 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C99">
+        <v>2986.71</v>
       </c>
       <c r="D99">
         <v>986.08</v>
       </c>
+      <c r="E99">
+        <v>2000.63</v>
+      </c>
       <c r="F99" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J99">
+        <v>1817.89</v>
+      </c>
+      <c r="K99">
+        <v>62.47</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2569,13 +2839,25 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C100">
+        <v>2487.29</v>
       </c>
       <c r="D100">
         <v>1073.31</v>
       </c>
+      <c r="E100">
+        <v>1413.98</v>
+      </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J100">
+        <v>1809.65</v>
+      </c>
+      <c r="K100">
+        <v>62.35</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2583,13 +2865,25 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C101">
+        <v>1906.71</v>
       </c>
       <c r="D101">
         <v>1086.86</v>
       </c>
+      <c r="E101">
+        <v>819.85</v>
+      </c>
       <c r="F101" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J101">
+        <v>1789.86</v>
+      </c>
+      <c r="K101">
+        <v>61.96</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2597,13 +2891,13 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D102">
         <v>1099.01</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2611,13 +2905,13 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D103">
         <v>1119.47</v>
       </c>
       <c r="F103" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2625,13 +2919,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D104">
         <v>1227.98</v>
       </c>
       <c r="F104" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2639,13 +2933,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D105">
         <v>1311.51</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -2653,13 +2947,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D106">
         <v>1413.06</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -2667,19 +2961,19 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C107">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D107">
         <v>765.45</v>
       </c>
       <c r="E107">
-        <v>2385.12</v>
+        <v>2364.84</v>
       </c>
       <c r="F107" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G107">
         <v>0.93</v>
@@ -2691,10 +2985,10 @@
         <v>2160.32</v>
       </c>
       <c r="J107">
-        <v>2226.61</v>
+        <v>1801.13</v>
       </c>
       <c r="K107">
-        <v>71.68000000000001</v>
+        <v>62.23</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -2702,13 +2996,25 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C108">
+        <v>2986.71</v>
       </c>
       <c r="D108">
         <v>914.02</v>
       </c>
+      <c r="E108">
+        <v>2072.69</v>
+      </c>
       <c r="F108" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J108">
+        <v>1806.35</v>
+      </c>
+      <c r="K108">
+        <v>62.37</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -2716,13 +3022,25 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C109">
+        <v>2487.29</v>
       </c>
       <c r="D109">
         <v>919.39</v>
       </c>
+      <c r="E109">
+        <v>1567.9</v>
+      </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J109">
+        <v>1801.85</v>
+      </c>
+      <c r="K109">
+        <v>62.38</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -2730,13 +3048,25 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C110">
+        <v>1906.71</v>
       </c>
       <c r="D110">
         <v>898.15</v>
       </c>
+      <c r="E110">
+        <v>1008.56</v>
+      </c>
       <c r="F110" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J110">
+        <v>1787.16</v>
+      </c>
+      <c r="K110">
+        <v>62.21</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -2744,13 +3074,13 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D111">
         <v>816.33</v>
       </c>
       <c r="F111" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -2758,69 +3088,75 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D112">
         <v>862.1</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D113">
         <v>1388.7</v>
       </c>
       <c r="F113" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D114">
         <v>1436.3</v>
       </c>
       <c r="F114" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D115">
         <v>1685.59</v>
       </c>
       <c r="F115" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C116">
+        <v>2986.71</v>
       </c>
       <c r="D116">
         <v>1419.61</v>
       </c>
+      <c r="E116">
+        <v>1567.11</v>
+      </c>
       <c r="F116" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G116">
         <v>0.95</v>
@@ -2831,117 +3167,468 @@
       <c r="I116">
         <v>2339.04</v>
       </c>
-    </row>
-    <row r="117" spans="1:9">
+      <c r="J116">
+        <v>1783.16</v>
+      </c>
+      <c r="K116">
+        <v>62.03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C117">
+        <v>2487.29</v>
       </c>
       <c r="D117">
         <v>1659.64</v>
       </c>
+      <c r="E117">
+        <v>827.65</v>
+      </c>
       <c r="F117" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J117">
+        <v>1766.1</v>
+      </c>
+      <c r="K117">
+        <v>61.51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C118">
+        <v>1906.71</v>
       </c>
       <c r="D118">
         <v>1517.15</v>
       </c>
+      <c r="E118">
+        <v>389.56</v>
+      </c>
       <c r="F118" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J118">
+        <v>1741.95</v>
+      </c>
+      <c r="K118">
+        <v>60.79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D119">
         <v>528.5700000000001</v>
       </c>
       <c r="F119" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D120">
         <v>609.45</v>
       </c>
       <c r="F120" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D121">
         <v>1472.51</v>
       </c>
       <c r="F121" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D122">
         <v>1571.14</v>
       </c>
       <c r="F122" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D123">
         <v>821</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D124">
         <v>1950.94</v>
       </c>
       <c r="F124" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>58</v>
+      </c>
+      <c r="C125">
+        <v>2986.71</v>
+      </c>
+      <c r="D125">
+        <v>1419.61</v>
+      </c>
+      <c r="E125">
+        <v>1567.11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>68</v>
+      </c>
+      <c r="J125">
+        <v>1738.93</v>
+      </c>
+      <c r="K125">
+        <v>60.65</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126">
+        <v>2487.29</v>
+      </c>
+      <c r="D126">
+        <v>1659.64</v>
+      </c>
+      <c r="E126">
+        <v>827.65</v>
+      </c>
+      <c r="F126" t="s">
+        <v>68</v>
+      </c>
+      <c r="J126">
+        <v>1723.49</v>
+      </c>
+      <c r="K126">
+        <v>60.19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" t="s">
+        <v>17</v>
+      </c>
+      <c r="B127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127">
+        <v>1906.71</v>
+      </c>
+      <c r="D127">
+        <v>1517.15</v>
+      </c>
+      <c r="E127">
+        <v>389.56</v>
+      </c>
+      <c r="F127" t="s">
+        <v>68</v>
+      </c>
+      <c r="J127">
+        <v>1701.26</v>
+      </c>
+      <c r="K127">
+        <v>59.52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>61</v>
+      </c>
+      <c r="D128">
+        <v>528.5700000000001</v>
+      </c>
+      <c r="F128" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>62</v>
+      </c>
+      <c r="D129">
+        <v>609.45</v>
+      </c>
+      <c r="F129" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130">
+        <v>1472.51</v>
+      </c>
+      <c r="F130" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131">
+        <v>1571.14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132">
+        <v>821</v>
+      </c>
+      <c r="F132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" t="s">
         <v>66</v>
+      </c>
+      <c r="D133">
+        <v>1950.94</v>
+      </c>
+      <c r="F133" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134">
+        <v>2487.29</v>
+      </c>
+      <c r="D134">
+        <v>1678.23</v>
+      </c>
+      <c r="E134">
+        <v>809.05</v>
+      </c>
+      <c r="F134" t="s">
+        <v>68</v>
+      </c>
+      <c r="G134">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H134">
+        <v>52.65</v>
+      </c>
+      <c r="I134">
+        <v>1598.18</v>
+      </c>
+      <c r="J134">
+        <v>1686.63</v>
+      </c>
+      <c r="K134">
+        <v>59.08</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135">
+        <v>1906.71</v>
+      </c>
+      <c r="D135">
+        <v>1530.55</v>
+      </c>
+      <c r="E135">
+        <v>376.16</v>
+      </c>
+      <c r="F135" t="s">
+        <v>68</v>
+      </c>
+      <c r="J135">
+        <v>1665.49</v>
+      </c>
+      <c r="K135">
+        <v>58.45</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136">
+        <v>528.14</v>
+      </c>
+      <c r="F136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" t="s">
+        <v>62</v>
+      </c>
+      <c r="D137">
+        <v>608.23</v>
+      </c>
+      <c r="F137" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138">
+        <v>1484.96</v>
+      </c>
+      <c r="F138" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" t="s">
+        <v>64</v>
+      </c>
+      <c r="D139">
+        <v>1583.17</v>
+      </c>
+      <c r="F139" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" t="s">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140">
+        <v>828.29</v>
+      </c>
+      <c r="F140" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>66</v>
+      </c>
+      <c r="D141">
+        <v>1966.03</v>
+      </c>
+      <c r="F141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" t="s">
+        <v>67</v>
+      </c>
+      <c r="D142">
+        <v>1834.01</v>
+      </c>
+      <c r="F142" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="72">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>03 May -- 09 May 2020</t>
   </si>
   <si>
@@ -218,6 +221,12 @@
   </si>
   <si>
     <t>04 Apr -- 10 Apr 2021</t>
+  </si>
+  <si>
+    <t>11 Apr -- 17 Apr 2021</t>
+  </si>
+  <si>
+    <t>18 Apr -- 24 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1753.71</v>
@@ -636,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>1.15</v>
@@ -653,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1426.86</v>
@@ -665,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1220.57</v>
@@ -685,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>946.14</v>
@@ -705,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>873.71</v>
@@ -725,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>744.29</v>
@@ -745,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>602.14</v>
@@ -765,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>565.86</v>
@@ -785,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>524.14</v>
@@ -805,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>748.86</v>
@@ -825,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>786.29</v>
@@ -845,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>922</v>
@@ -865,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1140.43</v>
@@ -885,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1038.43</v>
@@ -905,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1007.43</v>
@@ -925,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>973.4299999999999</v>
@@ -945,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>894.5700000000001</v>
@@ -965,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>846.4299999999999</v>
@@ -985,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>733.14</v>
@@ -1005,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>797.86</v>
@@ -1025,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>766.4299999999999</v>
@@ -1045,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>702.14</v>
@@ -1065,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>714.29</v>
@@ -1085,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>717.4299999999999</v>
@@ -1105,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>821.5700000000001</v>
@@ -1125,7 +1134,7 @@
         <v>102.31</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>819</v>
@@ -1145,7 +1154,7 @@
         <v>103.59</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>994.86</v>
@@ -1165,7 +1174,7 @@
         <v>163.98</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>1087.29</v>
@@ -1185,7 +1194,7 @@
         <v>339.2</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>1466.29</v>
@@ -1205,7 +1214,7 @@
         <v>690.6799999999999</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>1447.14</v>
@@ -1225,7 +1234,7 @@
         <v>713.3200000000001</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>2150.29</v>
@@ -1245,7 +1254,7 @@
         <v>1415.54</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>2383.14</v>
@@ -1265,7 +1274,7 @@
         <v>1655.14</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>2607.86</v>
@@ -1285,7 +1294,7 @@
         <v>1887.13</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>2376.86</v>
@@ -1305,7 +1314,7 @@
         <v>1452.32</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J35">
         <v>1452.32</v>
@@ -1319,25 +1328,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
-        <v>2683.43</v>
+        <v>2694.29</v>
       </c>
       <c r="D36">
         <v>870.89</v>
       </c>
       <c r="E36">
-        <v>1812.54</v>
+        <v>1823.4</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J36">
-        <v>1632.43</v>
+        <v>1637.86</v>
       </c>
       <c r="K36">
-        <v>64.31999999999999</v>
+        <v>64.39</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1345,25 +1354,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
-        <v>3148.14</v>
+        <v>3175.71</v>
       </c>
       <c r="D37">
         <v>958.0599999999999</v>
       </c>
       <c r="E37">
-        <v>2190.09</v>
+        <v>2217.66</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J37">
-        <v>1818.31</v>
+        <v>1831.12</v>
       </c>
       <c r="K37">
-        <v>66.06999999999999</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1371,25 +1380,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D38">
         <v>840.14</v>
       </c>
       <c r="E38">
-        <v>2494.15</v>
+        <v>2498.86</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J38">
-        <v>1987.27</v>
+        <v>1998.06</v>
       </c>
       <c r="K38">
-        <v>68.25</v>
+        <v>68.36</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1397,25 +1406,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D39">
         <v>833.74</v>
       </c>
       <c r="E39">
-        <v>2225.26</v>
+        <v>2228.11</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J39">
-        <v>2034.87</v>
+        <v>2044.07</v>
       </c>
       <c r="K39">
-        <v>69.15000000000001</v>
+        <v>69.23999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1423,25 +1432,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D40">
         <v>787.47</v>
       </c>
       <c r="E40">
-        <v>2342.82</v>
+        <v>2346.68</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J40">
-        <v>2086.19</v>
+        <v>2094.5</v>
       </c>
       <c r="K40">
-        <v>70.09999999999999</v>
+        <v>70.18000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1449,25 +1458,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D41">
         <v>778.87</v>
       </c>
       <c r="E41">
-        <v>2207.84</v>
+        <v>2211.7</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J41">
-        <v>2103.57</v>
+        <v>2111.25</v>
       </c>
       <c r="K41">
-        <v>70.65000000000001</v>
+        <v>70.72</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1475,25 +1484,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D42">
         <v>881.5700000000001</v>
       </c>
       <c r="E42">
-        <v>1605.71</v>
+        <v>1611.71</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J42">
-        <v>2041.34</v>
+        <v>2048.8</v>
       </c>
       <c r="K42">
-        <v>69.89</v>
+        <v>69.95999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1501,25 +1510,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D43">
         <v>899.55</v>
       </c>
       <c r="E43">
-        <v>1007.17</v>
+        <v>950.88</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J43">
-        <v>1926.43</v>
+        <v>1926.81</v>
       </c>
       <c r="K43">
-        <v>67.98999999999999</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1527,19 +1536,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44">
-        <v>2683.43</v>
+        <v>2694.29</v>
       </c>
       <c r="D44">
         <v>835.8099999999999</v>
       </c>
       <c r="E44">
-        <v>1847.62</v>
+        <v>1858.48</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G44">
         <v>1.05</v>
@@ -1551,10 +1560,10 @@
         <v>1403.62</v>
       </c>
       <c r="J44">
-        <v>1918.55</v>
+        <v>1919.98</v>
       </c>
       <c r="K44">
-        <v>68.08</v>
+        <v>68.01000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1562,25 +1571,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45">
-        <v>3148.14</v>
+        <v>3175.71</v>
       </c>
       <c r="D45">
         <v>857.17</v>
       </c>
       <c r="E45">
-        <v>2290.97</v>
+        <v>2318.54</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J45">
-        <v>1952.41</v>
+        <v>1956.21</v>
       </c>
       <c r="K45">
-        <v>68.5</v>
+        <v>68.45999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1588,25 +1597,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D46">
         <v>874.37</v>
       </c>
       <c r="E46">
-        <v>2459.91</v>
+        <v>2464.63</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J46">
-        <v>1994.7</v>
+        <v>1998.58</v>
       </c>
       <c r="K46">
-        <v>68.94</v>
+        <v>68.91</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1614,25 +1623,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D47">
         <v>904.05</v>
       </c>
       <c r="E47">
-        <v>2154.95</v>
+        <v>2157.81</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J47">
-        <v>2007.03</v>
+        <v>2010.83</v>
       </c>
       <c r="K47">
-        <v>69.06</v>
+        <v>69.03</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1640,25 +1649,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D48">
         <v>919.01</v>
       </c>
       <c r="E48">
-        <v>2211.28</v>
+        <v>2215.13</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J48">
-        <v>2021.62</v>
+        <v>2025.42</v>
       </c>
       <c r="K48">
-        <v>69.17</v>
+        <v>69.15000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1666,25 +1675,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D49">
         <v>943.38</v>
       </c>
       <c r="E49">
-        <v>2043.34</v>
+        <v>2047.19</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J49">
-        <v>2023.06</v>
+        <v>2026.87</v>
       </c>
       <c r="K49">
-        <v>69.12</v>
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1692,25 +1701,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D50">
         <v>1671.43</v>
       </c>
       <c r="E50">
-        <v>815.86</v>
+        <v>821.86</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J50">
-        <v>1947.61</v>
+        <v>1951.56</v>
       </c>
       <c r="K50">
-        <v>66.84999999999999</v>
+        <v>66.84</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1718,25 +1727,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D51">
         <v>1709.37</v>
       </c>
       <c r="E51">
-        <v>197.34</v>
+        <v>141.06</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J51">
-        <v>1844.66</v>
+        <v>1845.06</v>
       </c>
       <c r="K51">
-        <v>63.53</v>
+        <v>63.36</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1744,13 +1753,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D52">
         <v>894.22</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1758,19 +1767,19 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
-        <v>3148.14</v>
+        <v>3175.71</v>
       </c>
       <c r="D53">
         <v>836.58</v>
       </c>
       <c r="E53">
-        <v>2311.56</v>
+        <v>2339.13</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1782,10 +1791,10 @@
         <v>1772.05</v>
       </c>
       <c r="J53">
-        <v>1870.6</v>
+        <v>1872.51</v>
       </c>
       <c r="K53">
-        <v>64.08</v>
+        <v>63.93</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1793,25 +1802,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D54">
         <v>871.52</v>
       </c>
       <c r="E54">
-        <v>2462.76</v>
+        <v>2467.48</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J54">
-        <v>1901.76</v>
+        <v>1903.82</v>
       </c>
       <c r="K54">
-        <v>64.59</v>
+        <v>64.45</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1819,25 +1828,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D55">
         <v>902.85</v>
       </c>
       <c r="E55">
-        <v>2156.15</v>
+        <v>2159.01</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J55">
-        <v>1914.48</v>
+        <v>1916.58</v>
       </c>
       <c r="K55">
-        <v>64.89</v>
+        <v>64.76000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1845,25 +1854,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D56">
         <v>922.8099999999999</v>
       </c>
       <c r="E56">
-        <v>2207.48</v>
+        <v>2211.34</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J56">
-        <v>1928.43</v>
+        <v>1930.62</v>
       </c>
       <c r="K56">
-        <v>65.16</v>
+        <v>65.03</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1871,25 +1880,25 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D57">
         <v>997.4</v>
       </c>
       <c r="E57">
-        <v>1989.31</v>
+        <v>1993.17</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J57">
-        <v>1931.2</v>
+        <v>1933.46</v>
       </c>
       <c r="K57">
-        <v>65.22</v>
+        <v>65.11</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1897,25 +1906,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D58">
         <v>1068.91</v>
       </c>
       <c r="E58">
-        <v>1418.37</v>
+        <v>1424.37</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J58">
-        <v>1908.9</v>
+        <v>1911.33</v>
       </c>
       <c r="K58">
-        <v>64.86</v>
+        <v>64.76000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1923,25 +1932,25 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D59">
         <v>1774.31</v>
       </c>
       <c r="E59">
-        <v>132.41</v>
+        <v>76.12</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J59">
-        <v>1834.88</v>
+        <v>1834.86</v>
       </c>
       <c r="K59">
-        <v>62.45</v>
+        <v>62.23</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1949,13 +1958,13 @@
         <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D60">
         <v>838.65</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1963,13 +1972,13 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D61">
         <v>888.41</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1977,19 +1986,19 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C62">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D62">
         <v>782.5</v>
       </c>
       <c r="E62">
-        <v>2551.79</v>
+        <v>2556.5</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G62">
         <v>0.98</v>
@@ -2001,10 +2010,10 @@
         <v>2389.97</v>
       </c>
       <c r="J62">
-        <v>1863.56</v>
+        <v>1863.73</v>
       </c>
       <c r="K62">
-        <v>63.01</v>
+        <v>62.81</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2012,25 +2021,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C63">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D63">
         <v>783.4400000000001</v>
       </c>
       <c r="E63">
-        <v>2275.56</v>
+        <v>2278.41</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J63">
-        <v>1879.41</v>
+        <v>1879.67</v>
       </c>
       <c r="K63">
-        <v>63.45</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2038,25 +2047,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C64">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D64">
         <v>850.51</v>
       </c>
       <c r="E64">
-        <v>2279.78</v>
+        <v>2283.63</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J64">
-        <v>1894.23</v>
+        <v>1894.64</v>
       </c>
       <c r="K64">
-        <v>63.8</v>
+        <v>63.61</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2064,25 +2073,25 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D65">
         <v>910.75</v>
       </c>
       <c r="E65">
-        <v>2075.97</v>
+        <v>2079.82</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J65">
-        <v>1900.72</v>
+        <v>1901.25</v>
       </c>
       <c r="K65">
-        <v>64</v>
+        <v>63.82</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2090,25 +2099,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D66">
         <v>1002.7</v>
       </c>
       <c r="E66">
-        <v>1484.59</v>
+        <v>1490.59</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J66">
-        <v>1886.38</v>
+        <v>1887.09</v>
       </c>
       <c r="K66">
-        <v>63.85</v>
+        <v>63.68</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2116,25 +2125,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D67">
         <v>1098.72</v>
       </c>
       <c r="E67">
-        <v>807.99</v>
+        <v>751.71</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J67">
-        <v>1850.43</v>
+        <v>1849.24</v>
       </c>
       <c r="K67">
-        <v>63.14</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2142,13 +2151,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D68">
         <v>1193.53</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2156,13 +2165,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D69">
         <v>1321.06</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2170,13 +2179,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70">
         <v>1523.38</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2184,19 +2193,19 @@
         <v>14</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D71">
         <v>935.4</v>
       </c>
       <c r="E71">
-        <v>2398.89</v>
+        <v>2403.6</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G71">
         <v>0.8</v>
@@ -2208,10 +2217,10 @@
         <v>1952.14</v>
       </c>
       <c r="J71">
-        <v>1868.12</v>
+        <v>1867.13</v>
       </c>
       <c r="K71">
-        <v>63.42</v>
+        <v>63.21</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2219,25 +2228,25 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D72">
         <v>1074.3</v>
       </c>
       <c r="E72">
-        <v>1984.7</v>
+        <v>1987.56</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J72">
-        <v>1871.76</v>
+        <v>1870.89</v>
       </c>
       <c r="K72">
-        <v>63.47</v>
+        <v>63.26</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2245,25 +2254,25 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C73">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D73">
         <v>811.55</v>
       </c>
       <c r="E73">
-        <v>2318.73</v>
+        <v>2322.59</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J73">
-        <v>1885.31</v>
+        <v>1884.58</v>
       </c>
       <c r="K73">
-        <v>63.79</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2271,25 +2280,25 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C74">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D74">
         <v>1419.86</v>
       </c>
       <c r="E74">
-        <v>1566.85</v>
+        <v>1570.71</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J74">
-        <v>1875.94</v>
+        <v>1875.35</v>
       </c>
       <c r="K74">
-        <v>63.46</v>
+        <v>63.26</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2297,25 +2306,25 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C75">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D75">
         <v>1660.02</v>
       </c>
       <c r="E75">
-        <v>827.27</v>
+        <v>833.27</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J75">
-        <v>1845.98</v>
+        <v>1845.57</v>
       </c>
       <c r="K75">
-        <v>62.59</v>
+        <v>62.41</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2323,25 +2332,25 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C76">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D76">
         <v>1516.25</v>
       </c>
       <c r="E76">
-        <v>390.46</v>
+        <v>334.18</v>
       </c>
       <c r="F76" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J76">
-        <v>1805.55</v>
+        <v>1803.59</v>
       </c>
       <c r="K76">
-        <v>61.42</v>
+        <v>61.18</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2349,13 +2358,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D77">
         <v>528.5700000000001</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2363,13 +2372,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D78">
         <v>609.45</v>
       </c>
       <c r="F78" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2377,13 +2386,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D79">
         <v>1471.75</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2391,19 +2400,19 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C80">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D80">
         <v>856.21</v>
       </c>
       <c r="E80">
-        <v>2202.79</v>
+        <v>2205.65</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H80">
         <v>75.83</v>
@@ -2412,10 +2421,10 @@
         <v>2527.94</v>
       </c>
       <c r="J80">
-        <v>1816.29</v>
+        <v>1814.46</v>
       </c>
       <c r="K80">
-        <v>61.71</v>
+        <v>61.47</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2423,25 +2432,25 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C81">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D81">
         <v>803.9299999999999</v>
       </c>
       <c r="E81">
-        <v>2326.36</v>
+        <v>2330.22</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J81">
-        <v>1829.71</v>
+        <v>1828.03</v>
       </c>
       <c r="K81">
-        <v>62.04</v>
+        <v>61.81</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2449,25 +2458,25 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C82">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D82">
         <v>1015.03</v>
       </c>
       <c r="E82">
-        <v>1971.69</v>
+        <v>1975.54</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J82">
-        <v>1833.35</v>
+        <v>1831.81</v>
       </c>
       <c r="K82">
-        <v>62.14</v>
+        <v>61.92</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2475,25 +2484,25 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C83">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D83">
         <v>788.13</v>
       </c>
       <c r="E83">
-        <v>1699.16</v>
+        <v>1705.16</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J83">
-        <v>1829.99</v>
+        <v>1828.64</v>
       </c>
       <c r="K83">
-        <v>62.3</v>
+        <v>62.08</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2501,25 +2510,25 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C84">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D84">
         <v>1132.93</v>
       </c>
       <c r="E84">
-        <v>773.78</v>
+        <v>717.5</v>
       </c>
       <c r="F84" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J84">
-        <v>1804.23</v>
+        <v>1801.54</v>
       </c>
       <c r="K84">
-        <v>61.77</v>
+        <v>61.51</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2527,13 +2536,13 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D85">
         <v>1147</v>
       </c>
       <c r="F85" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2541,13 +2550,13 @@
         <v>15</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D86">
         <v>1027.64</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2555,13 +2564,13 @@
         <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D87">
         <v>1123.07</v>
       </c>
       <c r="F87" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2569,13 +2578,13 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D88">
         <v>1330.58</v>
       </c>
       <c r="F88" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2583,19 +2592,19 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C89">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D89">
         <v>925.25</v>
       </c>
       <c r="E89">
-        <v>2133.75</v>
+        <v>2136.6</v>
       </c>
       <c r="F89" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G89">
         <v>0.92</v>
@@ -2607,10 +2616,10 @@
         <v>2346.31</v>
       </c>
       <c r="J89">
-        <v>1812.08</v>
+        <v>1809.52</v>
       </c>
       <c r="K89">
-        <v>61.96</v>
+        <v>61.71</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2618,25 +2627,25 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C90">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D90">
         <v>765.45</v>
       </c>
       <c r="E90">
-        <v>2364.84</v>
+        <v>2368.69</v>
       </c>
       <c r="F90" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J90">
-        <v>1824.93</v>
+        <v>1822.52</v>
       </c>
       <c r="K90">
-        <v>62.27</v>
+        <v>62.03</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2644,25 +2653,25 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C91">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D91">
         <v>914.02</v>
       </c>
       <c r="E91">
-        <v>2072.69</v>
+        <v>2076.55</v>
       </c>
       <c r="F91" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J91">
-        <v>1830.56</v>
+        <v>1828.3</v>
       </c>
       <c r="K91">
-        <v>62.44</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2670,25 +2679,25 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C92">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D92">
         <v>919.39</v>
       </c>
       <c r="E92">
-        <v>1567.9</v>
+        <v>1573.9</v>
       </c>
       <c r="F92" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J92">
-        <v>1824.73</v>
+        <v>1822.64</v>
       </c>
       <c r="K92">
-        <v>62.45</v>
+        <v>62.22</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2696,25 +2705,25 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C93">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D93">
         <v>898.15</v>
       </c>
       <c r="E93">
-        <v>1008.56</v>
+        <v>952.27</v>
       </c>
       <c r="F93" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J93">
-        <v>1806.98</v>
+        <v>1803.72</v>
       </c>
       <c r="K93">
-        <v>62.24</v>
+        <v>61.99</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2722,13 +2731,13 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D94">
         <v>816.33</v>
       </c>
       <c r="F94" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2736,13 +2745,13 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D95">
         <v>862.0700000000001</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2750,13 +2759,13 @@
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D96">
         <v>1388.58</v>
       </c>
       <c r="F96" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2764,13 +2773,13 @@
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D97">
         <v>1435.93</v>
       </c>
       <c r="F97" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2778,19 +2787,19 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D98">
         <v>993.28</v>
       </c>
       <c r="E98">
-        <v>2137</v>
+        <v>2140.86</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G98">
         <v>0.99</v>
@@ -2802,10 +2811,10 @@
         <v>2298.3</v>
       </c>
       <c r="J98">
-        <v>1814.01</v>
+        <v>1810.9</v>
       </c>
       <c r="K98">
-        <v>62.37</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2813,25 +2822,25 @@
         <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D99">
         <v>986.08</v>
       </c>
       <c r="E99">
-        <v>2000.63</v>
+        <v>2004.49</v>
       </c>
       <c r="F99" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J99">
-        <v>1817.89</v>
+        <v>1814.93</v>
       </c>
       <c r="K99">
-        <v>62.47</v>
+        <v>62.22</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2839,25 +2848,25 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C100">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D100">
         <v>1073.31</v>
       </c>
       <c r="E100">
-        <v>1413.98</v>
+        <v>1419.98</v>
       </c>
       <c r="F100" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J100">
-        <v>1809.65</v>
+        <v>1806.87</v>
       </c>
       <c r="K100">
-        <v>62.35</v>
+        <v>62.12</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2865,25 +2874,25 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C101">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D101">
         <v>1086.86</v>
       </c>
       <c r="E101">
-        <v>819.85</v>
+        <v>763.5700000000001</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J101">
-        <v>1789.86</v>
+        <v>1786</v>
       </c>
       <c r="K101">
-        <v>61.96</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2891,13 +2900,13 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D102">
         <v>1099.01</v>
       </c>
       <c r="F102" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2905,13 +2914,13 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D103">
         <v>1119.47</v>
       </c>
       <c r="F103" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2919,13 +2928,13 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D104">
         <v>1227.98</v>
       </c>
       <c r="F104" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2933,13 +2942,13 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D105">
         <v>1311.51</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -2947,13 +2956,13 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D106">
         <v>1413.06</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -2961,19 +2970,19 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C107">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D107">
         <v>765.45</v>
       </c>
       <c r="E107">
-        <v>2364.84</v>
+        <v>2368.69</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G107">
         <v>0.93</v>
@@ -2985,10 +2994,10 @@
         <v>2160.32</v>
       </c>
       <c r="J107">
-        <v>1801.13</v>
+        <v>1797.43</v>
       </c>
       <c r="K107">
-        <v>62.23</v>
+        <v>61.97</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -2996,25 +3005,25 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C108">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D108">
         <v>914.02</v>
       </c>
       <c r="E108">
-        <v>2072.69</v>
+        <v>2076.55</v>
       </c>
       <c r="F108" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J108">
-        <v>1806.35</v>
+        <v>1802.8</v>
       </c>
       <c r="K108">
-        <v>62.37</v>
+        <v>62.11</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -3022,25 +3031,25 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C109">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D109">
         <v>919.39</v>
       </c>
       <c r="E109">
-        <v>1567.9</v>
+        <v>1573.9</v>
       </c>
       <c r="F109" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J109">
-        <v>1801.85</v>
+        <v>1798.48</v>
       </c>
       <c r="K109">
-        <v>62.38</v>
+        <v>62.13</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -3048,25 +3057,25 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C110">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D110">
         <v>898.15</v>
       </c>
       <c r="E110">
-        <v>1008.56</v>
+        <v>952.27</v>
       </c>
       <c r="F110" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J110">
-        <v>1787.16</v>
+        <v>1782.81</v>
       </c>
       <c r="K110">
-        <v>62.21</v>
+        <v>61.94</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -3074,13 +3083,13 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D111">
         <v>816.33</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -3088,13 +3097,13 @@
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D112">
         <v>862.1</v>
       </c>
       <c r="F112" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -3102,13 +3111,13 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D113">
         <v>1388.7</v>
       </c>
       <c r="F113" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -3116,13 +3125,13 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D114">
         <v>1436.3</v>
       </c>
       <c r="F114" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -3130,13 +3139,13 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D115">
         <v>1685.59</v>
       </c>
       <c r="F115" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -3144,19 +3153,19 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C116">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D116">
         <v>1419.61</v>
       </c>
       <c r="E116">
-        <v>1567.11</v>
+        <v>1570.96</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G116">
         <v>0.95</v>
@@ -3168,10 +3177,10 @@
         <v>2339.04</v>
       </c>
       <c r="J116">
-        <v>1783.16</v>
+        <v>1778.96</v>
       </c>
       <c r="K116">
-        <v>62.03</v>
+        <v>61.76</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -3179,25 +3188,25 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C117">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D117">
         <v>1659.64</v>
       </c>
       <c r="E117">
-        <v>827.65</v>
+        <v>833.65</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J117">
-        <v>1766.1</v>
+        <v>1762.08</v>
       </c>
       <c r="K117">
-        <v>61.51</v>
+        <v>61.26</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -3205,25 +3214,25 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C118">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D118">
         <v>1517.15</v>
       </c>
       <c r="E118">
-        <v>389.56</v>
+        <v>333.27</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J118">
-        <v>1741.95</v>
+        <v>1737.01</v>
       </c>
       <c r="K118">
-        <v>60.79</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -3231,13 +3240,13 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D119">
         <v>528.5700000000001</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -3245,13 +3254,13 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D120">
         <v>609.45</v>
       </c>
       <c r="F120" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -3259,13 +3268,13 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D121">
         <v>1472.51</v>
       </c>
       <c r="F121" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -3273,13 +3282,13 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D122">
         <v>1571.14</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -3287,13 +3296,13 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D123">
         <v>821</v>
       </c>
       <c r="F123" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -3301,13 +3310,13 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D124">
         <v>1950.94</v>
       </c>
       <c r="F124" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -3315,25 +3324,25 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C125">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D125">
         <v>1419.61</v>
       </c>
       <c r="E125">
-        <v>1567.11</v>
+        <v>1570.96</v>
       </c>
       <c r="F125" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J125">
-        <v>1738.93</v>
+        <v>1734.15</v>
       </c>
       <c r="K125">
-        <v>60.65</v>
+        <v>60.36</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -3341,25 +3350,25 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C126">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D126">
         <v>1659.64</v>
       </c>
       <c r="E126">
-        <v>827.65</v>
+        <v>833.65</v>
       </c>
       <c r="F126" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J126">
-        <v>1723.49</v>
+        <v>1718.88</v>
       </c>
       <c r="K126">
-        <v>60.19</v>
+        <v>59.91</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -3367,25 +3376,25 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C127">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D127">
         <v>1517.15</v>
       </c>
       <c r="E127">
-        <v>389.56</v>
+        <v>333.27</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J127">
-        <v>1701.26</v>
+        <v>1695.79</v>
       </c>
       <c r="K127">
-        <v>59.52</v>
+        <v>59.21</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -3393,13 +3402,13 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D128">
         <v>528.5700000000001</v>
       </c>
       <c r="F128" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -3407,13 +3416,13 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D129">
         <v>609.45</v>
       </c>
       <c r="F129" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -3421,13 +3430,13 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D130">
         <v>1472.51</v>
       </c>
       <c r="F130" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -3435,13 +3444,13 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D131">
         <v>1571.14</v>
       </c>
       <c r="F131" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -3449,13 +3458,13 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D132">
         <v>821</v>
       </c>
       <c r="F132" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -3463,13 +3472,13 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D133">
         <v>1950.94</v>
       </c>
       <c r="F133" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -3477,19 +3486,19 @@
         <v>18</v>
       </c>
       <c r="B134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C134">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D134">
         <v>1678.23</v>
       </c>
       <c r="E134">
-        <v>809.05</v>
+        <v>815.05</v>
       </c>
       <c r="F134" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G134">
         <v>0.6899999999999999</v>
@@ -3501,10 +3510,10 @@
         <v>1598.18</v>
       </c>
       <c r="J134">
-        <v>1686.63</v>
+        <v>1681.35</v>
       </c>
       <c r="K134">
-        <v>59.08</v>
+        <v>58.77</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -3512,25 +3521,25 @@
         <v>18</v>
       </c>
       <c r="B135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C135">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D135">
         <v>1530.55</v>
       </c>
       <c r="E135">
-        <v>376.16</v>
+        <v>319.87</v>
       </c>
       <c r="F135" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J135">
-        <v>1665.49</v>
+        <v>1659.39</v>
       </c>
       <c r="K135">
-        <v>58.45</v>
+        <v>58.1</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -3538,13 +3547,13 @@
         <v>18</v>
       </c>
       <c r="B136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D136">
         <v>528.14</v>
       </c>
       <c r="F136" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -3552,13 +3561,13 @@
         <v>18</v>
       </c>
       <c r="B137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D137">
         <v>608.23</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -3566,13 +3575,13 @@
         <v>18</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D138">
         <v>1484.96</v>
       </c>
       <c r="F138" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -3580,13 +3589,13 @@
         <v>18</v>
       </c>
       <c r="B139" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D139">
         <v>1583.17</v>
       </c>
       <c r="F139" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -3594,13 +3603,13 @@
         <v>18</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D140">
         <v>828.29</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -3608,13 +3617,13 @@
         <v>18</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D141">
         <v>1966.03</v>
       </c>
       <c r="F141" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -3622,13 +3631,148 @@
         <v>18</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D142">
         <v>1834.01</v>
       </c>
       <c r="F142" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>62</v>
+      </c>
+      <c r="D143">
+        <v>861.04</v>
+      </c>
+      <c r="F143" t="s">
+        <v>71</v>
+      </c>
+      <c r="G143">
+        <v>1.06</v>
+      </c>
+      <c r="H143">
+        <v>57.79</v>
+      </c>
+      <c r="I143">
+        <v>1069.41</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144">
+        <v>1272.08</v>
+      </c>
+      <c r="F144" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>64</v>
+      </c>
+      <c r="D145">
+        <v>1445.09</v>
+      </c>
+      <c r="F145" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146">
+        <v>1438.42</v>
+      </c>
+      <c r="F146" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>66</v>
+      </c>
+      <c r="D147">
+        <v>1579.05</v>
+      </c>
+      <c r="F147" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>67</v>
+      </c>
+      <c r="D148">
+        <v>1804.95</v>
+      </c>
+      <c r="F148" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
         <v>68</v>
+      </c>
+      <c r="D149">
+        <v>1876.22</v>
+      </c>
+      <c r="F149" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>69</v>
+      </c>
+      <c r="D150">
+        <v>2069.35</v>
+      </c>
+      <c r="F150" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151">
+        <v>1840.02</v>
+      </c>
+      <c r="F151" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
